--- a/prix/geka.xlsx
+++ b/prix/geka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164415B6-FA74-4A98-9C7E-3009E3EB6FF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5CBC24-5E23-4CF5-8277-4AE7325D6A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{E54DEEA7-0B41-4DCD-A45B-352BD142BB27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E54DEEA7-0B41-4DCD-A45B-352BD142BB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>43040909</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>geka/rac-geka-T.png</t>
+  </si>
+  <si>
+    <t>disponible</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
@@ -210,7 +216,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +229,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +265,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -270,6 +290,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,7 +632,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +641,7 @@
     <col min="2" max="2" width="20.21875" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5546875" style="7"/>
     <col min="4" max="5" width="11.5546875" style="8"/>
-    <col min="6" max="6" width="9.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.77734375" style="2" customWidth="1"/>
     <col min="9" max="9" width="23.77734375" style="1" customWidth="1"/>
@@ -643,7 +666,9 @@
       <c r="E1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="7"/>
+      <c r="F1" s="10" t="s">
+        <v>55</v>
+      </c>
       <c r="G1" s="7"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -669,6 +694,9 @@
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
+      <c r="F2" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
@@ -686,6 +714,9 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="F3" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -703,6 +734,9 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -720,6 +754,9 @@
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="F5" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -737,6 +774,9 @@
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
+      <c r="F6" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -754,6 +794,9 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
+      <c r="F7" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -771,6 +814,9 @@
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
+      <c r="F8" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
@@ -788,6 +834,9 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
+      <c r="F9" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
@@ -805,6 +854,9 @@
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
+      <c r="F10" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -822,6 +874,9 @@
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="F11" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
@@ -839,6 +894,9 @@
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="F12" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B13" s="7" t="s">
@@ -853,6 +911,9 @@
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
+      <c r="F13" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
@@ -879,6 +940,9 @@
       <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
+      <c r="F15" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
@@ -896,8 +960,11 @@
       <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>54</v>
       </c>
@@ -913,8 +980,11 @@
       <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>54</v>
       </c>
@@ -930,8 +1000,11 @@
       <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>54</v>
       </c>
@@ -947,8 +1020,12 @@
       <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
+      <c r="F19" s="7" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/prix/geka.xlsx
+++ b/prix/geka.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D5CBC24-5E23-4CF5-8277-4AE7325D6A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E121D292-3E29-4396-9ABB-225E57B9087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E54DEEA7-0B41-4DCD-A45B-352BD142BB27}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{E54DEEA7-0B41-4DCD-A45B-352BD142BB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
   <si>
     <t>43040909</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>disponible</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -265,7 +262,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -294,6 +291,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -632,7 +632,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,8 +694,8 @@
       <c r="E2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>56</v>
+      <c r="F2" s="11">
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -714,8 +714,8 @@
       <c r="E3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>56</v>
+      <c r="F3" s="11">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -734,8 +734,8 @@
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>56</v>
+      <c r="F4" s="11">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -754,8 +754,8 @@
       <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>56</v>
+      <c r="F5" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -774,8 +774,8 @@
       <c r="E6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>56</v>
+      <c r="F6" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -794,8 +794,8 @@
       <c r="E7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>56</v>
+      <c r="F7" s="11">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -814,8 +814,8 @@
       <c r="E8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>56</v>
+      <c r="F8" s="11">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -834,8 +834,8 @@
       <c r="E9" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>56</v>
+      <c r="F9" s="11">
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
@@ -854,8 +854,8 @@
       <c r="E10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>56</v>
+      <c r="F10" s="11">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
@@ -874,8 +874,8 @@
       <c r="E11" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>56</v>
+      <c r="F11" s="11">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
@@ -894,8 +894,8 @@
       <c r="E12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>56</v>
+      <c r="F12" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -911,8 +911,8 @@
       <c r="E13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>56</v>
+      <c r="F13" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
@@ -923,6 +923,9 @@
       <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
+      <c r="F14" s="11">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
@@ -940,8 +943,8 @@
       <c r="E15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>56</v>
+      <c r="F15" s="11">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -960,8 +963,8 @@
       <c r="E16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>56</v>
+      <c r="F16" s="11">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -980,8 +983,8 @@
       <c r="E17" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>56</v>
+      <c r="F17" s="11">
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1000,8 +1003,8 @@
       <c r="E18" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>56</v>
+      <c r="F18" s="11">
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -1020,12 +1023,13 @@
       <c r="E19" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>56</v>
+      <c r="F19" s="11">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/prix/geka.xlsx
+++ b/prix/geka.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\raccords-plomberie\prix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caisse5\Desktop\site-internet\raccords-plomberie\prix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E121D292-3E29-4396-9ABB-225E57B9087B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099D7CED-2CB8-4C2A-BB82-3FAFF9FADDCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="19416" windowHeight="11016" xr2:uid="{E54DEEA7-0B41-4DCD-A45B-352BD142BB27}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
